--- a/results/multi_result.xlsx
+++ b/results/multi_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1360" windowWidth="28100" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1810,62 +1810,20 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="5">
-        <f>AVERAGE(B2:B27)</f>
-        <v>0.65381177626973686</v>
-      </c>
-      <c r="C28" s="5">
-        <f t="shared" ref="C28:O28" si="0">AVERAGE(C2:C27)</f>
-        <v>0.59727505988715124</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.40353846153846157</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.58545168245416679</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.70576538461538452</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66989230769230756</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.56425769230769218</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67125142396024728</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.70123587394102238</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.71677608173076912</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.72222898300000016</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.68354746251663656</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.72624818090057397</v>
-      </c>
-      <c r="O28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.73442884704449463</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
